--- a/edp/edp_schema_main_v0.1.xlsx
+++ b/edp/edp_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F54AD-989B-6B43-A57F-F0D51FC9C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B6D5B-58CD-A145-A01C-7117515BF68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1220" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="39000" yWindow="7860" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="247">
   <si>
     <t>component_name</t>
   </si>
@@ -886,12 +886,6 @@
     <t>Sample:Volume</t>
   </si>
   <si>
-    <t>Smaple:C_QuantMethod</t>
-  </si>
-  <si>
-    <t>Sample:Concentration,  QC Datum:Concentration</t>
-  </si>
-  <si>
     <t>Assigned Index:OtherSampleId</t>
   </si>
   <si>
@@ -934,9 +928,6 @@
     <t>hidden</t>
   </si>
   <si>
-    <t>Project:ProjectName</t>
-  </si>
-  <si>
     <t>Budget Holder</t>
   </si>
   <si>
@@ -1000,10 +991,22 @@
     <t>Project:C_BudgetHolder</t>
   </si>
   <si>
-    <t>Sample:PlateId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please input positive number </t>
+  </si>
+  <si>
+    <t>Sample:C_SampleReturn</t>
+  </si>
+  <si>
+    <t>Sample:Concentration</t>
+  </si>
+  <si>
+    <t>Sample:StorageUnitPath</t>
+  </si>
+  <si>
+    <t>Sample:</t>
+  </si>
+  <si>
+    <t>Sample:C_QuantMethod</t>
   </si>
 </sst>
 </file>
@@ -1771,10 +1774,10 @@
   </sheetPr>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="97" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="W39" sqref="W39"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -1847,7 +1850,7 @@
         <v>119</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>12</v>
@@ -1883,9 +1886,6 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -1899,7 +1899,9 @@
         <v>16</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="44" t="s">
         <v>17</v>
@@ -1928,10 +1930,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
@@ -1984,6 +1989,9 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
@@ -2028,13 +2036,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
@@ -2048,7 +2056,9 @@
         <v>16</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
@@ -2071,13 +2081,13 @@
         <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -2118,32 +2128,32 @@
         <v>198</v>
       </c>
       <c r="F7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W7" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="16">
@@ -2176,7 +2186,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="44" t="s">
@@ -2206,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
@@ -2227,7 +2237,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="44" t="s">
@@ -2278,7 +2288,7 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="44" t="s">
@@ -2329,7 +2339,7 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="44" t="s">
@@ -2380,7 +2390,7 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="44" t="s">
@@ -2431,7 +2441,7 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="44" t="s">
@@ -2478,7 +2488,7 @@
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="44" t="s">
@@ -2517,7 +2527,7 @@
         <v>204</v>
       </c>
       <c r="F15" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>120</v>
@@ -2582,7 +2592,7 @@
         <v>117</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
@@ -2624,7 +2634,7 @@
         <v>57</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>0</v>
@@ -2637,7 +2647,7 @@
         <v>117</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
@@ -2677,7 +2687,7 @@
         <v>197</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F18" s="1" t="b">
         <v>0</v>
@@ -2726,7 +2736,7 @@
         <v>141</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>0</v>
@@ -2769,7 +2779,7 @@
         <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>0</v>
@@ -2812,7 +2822,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F21" s="1" t="b">
         <v>0</v>
@@ -2863,7 +2873,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F22" s="1" t="b">
         <v>0</v>
@@ -2959,7 +2969,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>0</v>
@@ -3010,7 +3020,7 @@
         <v>149</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F25" s="1" t="b">
         <v>0</v>
@@ -3055,7 +3065,7 @@
         <v>151</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>0</v>
@@ -3100,7 +3110,7 @@
         <v>180</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>0</v>
@@ -3141,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F28" s="1" t="b">
         <v>0</v>
@@ -3182,7 +3192,7 @@
         <v>183</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F29" s="1" t="b">
         <v>0</v>
@@ -3223,7 +3233,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>0</v>
@@ -3276,7 +3286,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>0</v>
@@ -3325,7 +3335,7 @@
         <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>0</v>
@@ -3376,7 +3386,7 @@
         <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>0</v>
@@ -3429,7 +3439,7 @@
         <v>153</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>0</v>
@@ -3474,7 +3484,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>0</v>
@@ -3527,7 +3537,7 @@
         <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>0</v>
@@ -3578,7 +3588,7 @@
         <v>136</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F37" s="1" t="b">
         <v>0</v>
@@ -3629,7 +3639,7 @@
         <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F38" s="1" t="b">
         <v>0</v>
@@ -3697,7 +3707,7 @@
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="44" t="s">
@@ -3727,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
@@ -3775,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>0</v>
@@ -4066,7 +4076,7 @@
         <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>0</v>
@@ -4083,7 +4093,7 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="44" t="s">
@@ -4189,7 +4199,7 @@
         <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>0</v>
@@ -4206,7 +4216,7 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="44" t="s">
@@ -14882,14 +14892,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14904,7 +14914,7 @@
         <v>177</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14915,6 +14925,9 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15104,7 +15117,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
